--- a/src/main/resources/org/opensha/oaf/oetas/resources/mbMixedEtasParams_20250204.xlsx
+++ b/src/main/resources/org/opensha/oaf/oetas/resources/mbMixedEtasParams_20250204.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\USR\USGS\Aftershocks\VS\oef04\oef\SOURCE\deploy\notes\priors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\USR\USGS\Aftershocks\VS\oef04\oef\SOURCE\oaf-a\oetas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DFFDCF-7731-41AD-9790-2F61B40B1FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A941231F-EFC7-4ECE-B54A-AD36D5423956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X25" sqref="X25"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,7 +1201,7 @@
         <v>0.01</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J3">
         <v>1.08</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="1">
-        <f t="shared" ref="P3:W3" si="1">P2</f>
+        <f t="shared" ref="P3:U3" si="1">P2</f>
         <v>1000</v>
       </c>
       <c r="Q3" s="1">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" ref="P4:W4" si="3">P2</f>
+        <f t="shared" ref="P4:T4" si="3">P2</f>
         <v>1000</v>
       </c>
       <c r="Q4" s="1">
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" ref="P6:W6" si="7">P2</f>
+        <f t="shared" ref="P6:T6" si="7">P2</f>
         <v>1000</v>
       </c>
       <c r="Q6" s="1">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="I7" s="1">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="8"/>
@@ -1640,7 +1640,7 @@
       </c>
       <c r="I8" s="1">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="10"/>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="I9" s="1">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="12"/>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="14"/>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" ref="P10:W10" si="15">P3</f>
+        <f t="shared" ref="P10:T10" si="15">P3</f>
         <v>1000</v>
       </c>
       <c r="Q10" s="1">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="I11" s="1">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="16"/>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="18"/>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="20"/>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="1">
-        <f t="shared" ref="P13:W13" si="21">P3</f>
+        <f t="shared" ref="P13:T13" si="21">P3</f>
         <v>1000</v>
       </c>
       <c r="Q13" s="1">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="I14" s="1">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="22"/>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <f t="shared" ref="P14:W14" si="23">P3</f>
+        <f t="shared" ref="P14:T14" si="23">P3</f>
         <v>1000</v>
       </c>
       <c r="Q14" s="1">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="I15" s="1">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="24"/>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="I16" s="1">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="26"/>
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="1">
-        <f t="shared" ref="P16:W16" si="27">P3</f>
+        <f t="shared" ref="P16:T16" si="27">P3</f>
         <v>1000</v>
       </c>
       <c r="Q16" s="1">
@@ -2450,7 +2450,7 @@
       </c>
       <c r="I17" s="1">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="28"/>
@@ -2461,20 +2461,20 @@
         <v>0.15</v>
       </c>
       <c r="L17" s="1">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="M17" s="1">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="N17" s="1">
-        <v>-8</v>
+        <v>-3.9</v>
       </c>
       <c r="O17" s="1">
         <f>O3</f>
         <v>0</v>
       </c>
       <c r="P17" s="1">
-        <f t="shared" ref="P17:W17" si="29">P3</f>
+        <f t="shared" ref="P17:T17" si="29">P3</f>
         <v>1000</v>
       </c>
       <c r="Q17" s="1">
@@ -2494,13 +2494,13 @@
         <v>145</v>
       </c>
       <c r="U17" s="1">
-        <v>0.65</v>
+        <v>0.73</v>
       </c>
       <c r="V17" s="1">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="W17" s="1">
-        <v>-5</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="1">
-        <f t="shared" ref="P19:W19" si="33">P4</f>
+        <f t="shared" ref="P19:T19" si="33">P4</f>
         <v>1000</v>
       </c>
       <c r="Q19" s="1">
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="1">
-        <f t="shared" ref="P22:W22" si="39">P6</f>
+        <f t="shared" ref="P22:T22" si="39">P6</f>
         <v>1000</v>
       </c>
       <c r="Q22" s="1">
@@ -3014,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="1">
-        <f t="shared" ref="P23:W23" si="41">P6</f>
+        <f t="shared" ref="P23:T23" si="41">P6</f>
         <v>1000</v>
       </c>
       <c r="Q23" s="1">
@@ -3101,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="1">
-        <f t="shared" ref="P24:W24" si="43">P6</f>
+        <f t="shared" ref="P24:T24" si="43">P6</f>
         <v>1000</v>
       </c>
       <c r="Q24" s="1">
@@ -3188,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="1">
-        <f t="shared" ref="P25:W25" si="45">P6</f>
+        <f t="shared" ref="P25:T25" si="45">P6</f>
         <v>1000</v>
       </c>
       <c r="Q25" s="1">
